--- a/metrics/llama31_8b_LMDeploy_A100.xlsx
+++ b/metrics/llama31_8b_LMDeploy_A100.xlsx
@@ -10,6 +10,8 @@
     <sheet name="CU_100" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="CU_50" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="CU_10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CU_5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CU_1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2507,4 +2509,1396 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time (seconds)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tokens per Second</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Latency (seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.51459344734128</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2113726139068604</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>187.1135471778724</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2395570278167725</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
+        <v>233.6444169978883</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.781280040740967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="n">
+        <v>246.3898692795645</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.296931505203247</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>243.7824411344828</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.89027738571167</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B7" t="n">
+        <v>256.8077086966858</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.325096130371094</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34</v>
+      </c>
+      <c r="B8" t="n">
+        <v>262.7589937415864</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.808494091033936</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>258.1286176687815</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.68056058883667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44</v>
+      </c>
+      <c r="B10" t="n">
+        <v>266.009714877245</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.73507022857666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>49</v>
+      </c>
+      <c r="B11" t="n">
+        <v>274.7176707216529</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.810068130493164</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54</v>
+      </c>
+      <c r="B12" t="n">
+        <v>281.9160173181987</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.857539415359497</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59</v>
+      </c>
+      <c r="B13" t="n">
+        <v>267.9745214180427</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.913822174072266</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64</v>
+      </c>
+      <c r="B14" t="n">
+        <v>276.7985688021375</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1467971801757812</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>69</v>
+      </c>
+      <c r="B15" t="n">
+        <v>282.9322641294955</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.963415861129761</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>74</v>
+      </c>
+      <c r="B16" t="n">
+        <v>273.6740905009819</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8648145198822021</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>79</v>
+      </c>
+      <c r="B17" t="n">
+        <v>272.7276004640063</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4746229648590088</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>84</v>
+      </c>
+      <c r="B18" t="n">
+        <v>279.5712504135149</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.894891023635864</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>89</v>
+      </c>
+      <c r="B19" t="n">
+        <v>275.9197859850821</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.637108564376831</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>94</v>
+      </c>
+      <c r="B20" t="n">
+        <v>273.5103849492788</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.617084741592407</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>99</v>
+      </c>
+      <c r="B21" t="n">
+        <v>281.710646741629</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3366765975952148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>104</v>
+      </c>
+      <c r="B22" t="n">
+        <v>277.2705680608213</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.87746787071228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>109</v>
+      </c>
+      <c r="B23" t="n">
+        <v>280.303040504902</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.754850387573242</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>114</v>
+      </c>
+      <c r="B24" t="n">
+        <v>279.3761301113394</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1114130020141602</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>119</v>
+      </c>
+      <c r="B25" t="n">
+        <v>285.414375749578</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.730356454849243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>124</v>
+      </c>
+      <c r="B26" t="n">
+        <v>277.2827994440472</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.422556638717651</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>129</v>
+      </c>
+      <c r="B27" t="n">
+        <v>282.1033919582597</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.686796188354492</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>134</v>
+      </c>
+      <c r="B28" t="n">
+        <v>283.6635171928967</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.658837556838989</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>139</v>
+      </c>
+      <c r="B29" t="n">
+        <v>285.7646500090055</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.582660913467407</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>144</v>
+      </c>
+      <c r="B30" t="n">
+        <v>283.6497464891193</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.216659069061279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>149</v>
+      </c>
+      <c r="B31" t="n">
+        <v>284.5611959883756</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.537252902984619</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>154</v>
+      </c>
+      <c r="B32" t="n">
+        <v>283.8304479918071</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.536343812942505</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>159</v>
+      </c>
+      <c r="B33" t="n">
+        <v>287.1142520056123</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3278970718383789</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>164</v>
+      </c>
+      <c r="B34" t="n">
+        <v>283.9406660124769</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.538968324661255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>169</v>
+      </c>
+      <c r="B35" t="n">
+        <v>281.74941694438</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.105197191238403</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>174</v>
+      </c>
+      <c r="B36" t="n">
+        <v>285.7944563819655</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.302848339080811</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>179</v>
+      </c>
+      <c r="B37" t="n">
+        <v>283.7676903193288</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.55955982208252</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>184</v>
+      </c>
+      <c r="B38" t="n">
+        <v>282.4114333601116</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.588058710098267</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>189</v>
+      </c>
+      <c r="B39" t="n">
+        <v>284.0396665131048</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.172041416168213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>194</v>
+      </c>
+      <c r="B40" t="n">
+        <v>284.7162946466418</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6.530916213989258</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>199</v>
+      </c>
+      <c r="B41" t="n">
+        <v>281.8100867909943</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1030688285827637</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>204</v>
+      </c>
+      <c r="B42" t="n">
+        <v>279.3989606912127</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.552750825881958</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>209</v>
+      </c>
+      <c r="B43" t="n">
+        <v>283.5183707501006</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.552755117416382</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>214</v>
+      </c>
+      <c r="B44" t="n">
+        <v>282.6452403923347</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.531595468521118</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>219</v>
+      </c>
+      <c r="B45" t="n">
+        <v>282.3882163773595</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.56672191619873</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>224</v>
+      </c>
+      <c r="B46" t="n">
+        <v>281.3562949642032</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1121540069580078</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>229</v>
+      </c>
+      <c r="B47" t="n">
+        <v>281.9645674294744</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.548119783401489</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>234</v>
+      </c>
+      <c r="B48" t="n">
+        <v>284.2332321397884</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.773109197616577</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>239</v>
+      </c>
+      <c r="B49" t="n">
+        <v>284.46572493551</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.708357572555542</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>244</v>
+      </c>
+      <c r="B50" t="n">
+        <v>284.6181068524089</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.54404091835022</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>249</v>
+      </c>
+      <c r="B51" t="n">
+        <v>282.4972252248689</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.546800851821899</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>254</v>
+      </c>
+      <c r="B52" t="n">
+        <v>285.7148140404996</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.09680891036987305</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>259</v>
+      </c>
+      <c r="B53" t="n">
+        <v>283.3803620569423</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5263102054595947</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>264</v>
+      </c>
+      <c r="B54" t="n">
+        <v>284.0582598508623</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.873109817504883</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>269</v>
+      </c>
+      <c r="B55" t="n">
+        <v>281.2888073888585</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6.549837350845337</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>274</v>
+      </c>
+      <c r="B56" t="n">
+        <v>283.1765991010039</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.470897436141968</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>279</v>
+      </c>
+      <c r="B57" t="n">
+        <v>285.3798735824079</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6.625900506973267</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>284</v>
+      </c>
+      <c r="B58" t="n">
+        <v>284.833714564439</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.647976398468018</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>289</v>
+      </c>
+      <c r="B59" t="n">
+        <v>284.0732777734407</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6.645989418029785</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>294</v>
+      </c>
+      <c r="B60" t="n">
+        <v>283.742827323858</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.322788953781128</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>299</v>
+      </c>
+      <c r="B61" t="n">
+        <v>283.6877168798982</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.691777229309082</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time (seconds)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tokens per Second</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Latency (seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.9985347999311</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3426206111907959</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43.16131610405484</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.272103071212769</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56.02544628964581</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1102733612060547</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>42.02954139395071</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6072385311126709</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>47.45779896342704</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.351984024047852</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56.8426921009025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.359467506408691</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48.73115972378358</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8120162487030029</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>52.18107453462864</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08500003814697266</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>54.0595572030338</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.833484888076782</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>58.36375006024353</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9005553722381592</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>53.06820873886434</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.91588568687439</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>55.73725692902141</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.310567855834961</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57.62225019745338</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.732346057891846</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>59.46740079614849</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.306676626205444</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>55.50177351884336</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.365019798278809</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56.86687233895104</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.373803853988647</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>58.38161396567618</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1084280014038086</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B19" t="n">
+        <v>59.88573830895292</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7097785472869873</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>95</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56.72966480348155</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2688884735107422</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>60.94351767332365</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.364445924758911</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>58.04309936148221</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9050698280334473</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>110</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57.49252116889878</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.397112131118774</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>115</v>
+      </c>
+      <c r="B24" t="n">
+        <v>59.07364359481222</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.320026636123657</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57.47182301645373</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.264577865600586</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>58.54985153625802</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.280083417892456</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>130</v>
+      </c>
+      <c r="B27" t="n">
+        <v>58.83486756793718</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.323812484741211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>135</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57.04633467085111</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.126689672470093</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>140</v>
+      </c>
+      <c r="B29" t="n">
+        <v>57.43935870089593</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.523786306381226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>145</v>
+      </c>
+      <c r="B30" t="n">
+        <v>58.5976656289705</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.316855430603027</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>150</v>
+      </c>
+      <c r="B31" t="n">
+        <v>59.5939847052316</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.226172208786011</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>155</v>
+      </c>
+      <c r="B32" t="n">
+        <v>57.67482049105728</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.384727716445923</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>160</v>
+      </c>
+      <c r="B33" t="n">
+        <v>59.74312786607073</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4305977821350098</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>165</v>
+      </c>
+      <c r="B34" t="n">
+        <v>59.87331297316899</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.450818061828613</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>170</v>
+      </c>
+      <c r="B35" t="n">
+        <v>59.16761633625321</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.315077066421509</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>175</v>
+      </c>
+      <c r="B36" t="n">
+        <v>59.76222995047522</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.317747116088867</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>180</v>
+      </c>
+      <c r="B37" t="n">
+        <v>58.1030834588309</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8999044895172119</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>185</v>
+      </c>
+      <c r="B38" t="n">
+        <v>58.70687932785042</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.646021366119385</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>190</v>
+      </c>
+      <c r="B39" t="n">
+        <v>59.5870474504349</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5472710132598877</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>195</v>
+      </c>
+      <c r="B40" t="n">
+        <v>59.81256420500339</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6.226070165634155</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>200</v>
+      </c>
+      <c r="B41" t="n">
+        <v>60.18438692844423</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.31636118888855</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>205</v>
+      </c>
+      <c r="B42" t="n">
+        <v>58.71321353586238</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4209911823272705</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>210</v>
+      </c>
+      <c r="B43" t="n">
+        <v>59.46866577829521</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.30086350440979</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>215</v>
+      </c>
+      <c r="B44" t="n">
+        <v>59.58532843899879</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.09842157363891602</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>220</v>
+      </c>
+      <c r="B45" t="n">
+        <v>60.73085436998974</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.695991039276123</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>225</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60.48787055892959</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.462120771408081</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>230</v>
+      </c>
+      <c r="B47" t="n">
+        <v>60.91399065347229</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.7653038501739502</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>235</v>
+      </c>
+      <c r="B48" t="n">
+        <v>60.55226074711034</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.112001895904541</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>240</v>
+      </c>
+      <c r="B49" t="n">
+        <v>59.29041273199108</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.285713672637939</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>245</v>
+      </c>
+      <c r="B50" t="n">
+        <v>60.66031306138332</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.348220586776733</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>250</v>
+      </c>
+      <c r="B51" t="n">
+        <v>59.44460338236131</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.265728235244751</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>255</v>
+      </c>
+      <c r="B52" t="n">
+        <v>59.96645760649638</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.348076343536377</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>260</v>
+      </c>
+      <c r="B53" t="n">
+        <v>60.01069951521862</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.052370548248291</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>265</v>
+      </c>
+      <c r="B54" t="n">
+        <v>60.47998821952488</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.349448680877686</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>270</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60.43137268018082</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6.246814012527466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>275</v>
+      </c>
+      <c r="B56" t="n">
+        <v>60.81115710571989</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4074981212615967</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>280</v>
+      </c>
+      <c r="B57" t="n">
+        <v>61.08201364929918</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.681583881378174</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>285</v>
+      </c>
+      <c r="B58" t="n">
+        <v>60.00967262958908</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.349828720092773</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>290</v>
+      </c>
+      <c r="B59" t="n">
+        <v>60.41203983198399</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.086548089981079</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>295</v>
+      </c>
+      <c r="B60" t="n">
+        <v>60.83787691707722</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.85533332824707</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>300</v>
+      </c>
+      <c r="B61" t="n">
+        <v>61.07832873918904</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.381676197052002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>